--- a/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{454AD65B-D075-4DBB-80A6-CCC3C7B4E04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{935EC888-C7C0-465A-9A14-00042AE53188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A3E43BE-7C74-4E7A-8363-85F6811424FB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEFF6C60-0EE0-410A-8D34-03C115209DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>73,22%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>72,8%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>26,78%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>69,97%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>30,03%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>73,31%</t>
   </si>
   <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>73,58%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>79,85%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>80,11%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>24,3%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC3E705-95B4-4AFC-AC0D-F7C7430A2530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E9E59-A0B7-4576-AAD7-70727DCC56ED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1933,7 +1933,7 @@
         <v>1344</v>
       </c>
       <c r="D22" s="7">
-        <v>1300176</v>
+        <v>1300175</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -2035,7 +2035,7 @@
         <v>1763</v>
       </c>
       <c r="D24" s="7">
-        <v>1717488</v>
+        <v>1717487</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935EC888-C7C0-465A-9A14-00042AE53188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5938D32-C3A1-4390-9CD3-968041BDB7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEFF6C60-0EE0-410A-8D34-03C115209DA1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0803AC8-33FB-4B59-B6FE-D5F2B61A6B74}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E9E59-A0B7-4576-AAD7-70727DCC56ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F650CF4-A1DC-4368-A4C4-8C4E3A80E27C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
